--- a/WELLBORNE - Simulation investissement 2023 (4).xlsx
+++ b/WELLBORNE - Simulation investissement 2023 (4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Documents\WELLBORNE\IRVE - DISTRIB en contrat\Distributeurs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\13 Projet Clients\Artixium\02 projet simuateur de gain\wel\Welborn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C12CE89-4896-4E50-90F0-449A87D2C183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4D101-C917-4B4D-A760-25040F573463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA2D773-0363-403A-8D7A-CD3069532114}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FA2D773-0363-403A-8D7A-CD3069532114}"/>
   </bookViews>
   <sheets>
     <sheet name="DONNÉES CLIENTS" sheetId="2" r:id="rId1"/>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="11">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
@@ -1729,100 +1729,59 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1835,12 +1794,53 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1848,7 +1848,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{31F05414-95A8-42C7-8874-037F64D734E4}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF336600"/>
@@ -3427,82 +3429,82 @@
   <dimension ref="A2:S57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="11.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="16" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="145" t="s">
+    <row r="2" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-    </row>
-    <row r="10" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="148" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+    </row>
+    <row r="10" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="M10" s="144" t="s">
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="M10" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-    </row>
-    <row r="11" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-    </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+    </row>
+    <row r="11" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="151"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+    </row>
+    <row r="12" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
       <c r="N12" s="127" t="s">
         <v>17</v>
@@ -3514,8 +3516,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="151" t="s">
+    <row r="13" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="154" t="s">
         <v>169</v>
       </c>
       <c r="C13" s="133" t="s">
@@ -3531,17 +3533,17 @@
         <f>D18</f>
         <v>0.16</v>
       </c>
-      <c r="O13" s="176">
+      <c r="O13" s="143">
         <v>0.38</v>
       </c>
       <c r="P13" s="121">
         <f>O13/N13</f>
         <v>2.375</v>
       </c>
-      <c r="R13" s="142"/>
-    </row>
-    <row r="14" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="152"/>
+      <c r="R13" s="145"/>
+    </row>
+    <row r="14" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="155"/>
       <c r="C14" s="133" t="s">
         <v>62</v>
       </c>
@@ -3555,16 +3557,16 @@
         <f>N13+N13*'DONNEES NATIONALES'!C21</f>
         <v>0.1792</v>
       </c>
-      <c r="O14" s="176">
+      <c r="O14" s="143">
         <v>0.38</v>
       </c>
       <c r="P14" s="121">
         <f>O14/N14</f>
         <v>2.1205357142857144</v>
       </c>
-      <c r="R14" s="142"/>
-    </row>
-    <row r="15" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="145"/>
+    </row>
+    <row r="15" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="134"/>
       <c r="D15" s="130"/>
       <c r="M15" s="129" t="s">
@@ -3574,16 +3576,16 @@
         <f>N14+N14*'DONNEES NATIONALES'!C22</f>
         <v>0.20607999999999999</v>
       </c>
-      <c r="O15" s="176">
+      <c r="O15" s="143">
         <v>0.38</v>
       </c>
       <c r="P15" s="121">
         <f>O15/N15</f>
         <v>1.843944099378882</v>
       </c>
-      <c r="R15" s="142"/>
-    </row>
-    <row r="16" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="145"/>
+    </row>
+    <row r="16" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="134"/>
       <c r="D16" s="130"/>
       <c r="M16" s="129" t="s">
@@ -3593,17 +3595,17 @@
         <f>N15+N15*'DONNEES NATIONALES'!C23</f>
         <v>0.24729599999999999</v>
       </c>
-      <c r="O16" s="176">
+      <c r="O16" s="143">
         <v>0.38</v>
       </c>
       <c r="P16" s="121">
         <f>O16/N16</f>
         <v>1.536620082815735</v>
       </c>
-      <c r="R16" s="142"/>
-    </row>
-    <row r="17" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="146" t="s">
+      <c r="R16" s="145"/>
+    </row>
+    <row r="17" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="149" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="133" t="s">
@@ -3612,10 +3614,10 @@
       <c r="D17" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="142"/>
-    </row>
-    <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="146"/>
+      <c r="R17" s="145"/>
+    </row>
+    <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="149"/>
       <c r="C18" s="133" t="s">
         <v>21</v>
       </c>
@@ -3623,12 +3625,12 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="42"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:19" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="149" t="s">
+    <row r="20" spans="1:19" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B20" s="152" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="43" t="s">
@@ -3659,8 +3661,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B21" s="149"/>
+    <row r="21" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B21" s="152"/>
       <c r="C21" s="132" t="s">
         <v>38</v>
       </c>
@@ -3694,11 +3696,11 @@
         <f>IF(ISNA(IF(VLOOKUP($C21,$C$31:$G$57,2,FALSE)="DC",$D21,"")),"",IF(VLOOKUP($C21,$C$31:$G$57,2,FALSE)="DC",$D21,""))</f>
         <v/>
       </c>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-    </row>
-    <row r="22" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="149"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+    </row>
+    <row r="22" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="152"/>
       <c r="C22" s="132" t="s">
         <v>46</v>
       </c>
@@ -3733,8 +3735,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="149"/>
+    <row r="23" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="152"/>
       <c r="C23" s="132"/>
       <c r="D23" s="139"/>
       <c r="E23" s="124"/>
@@ -3757,28 +3759,28 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="143" t="s">
+    <row r="24" spans="1:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
       <c r="P28" s="52"/>
     </row>
-    <row r="29" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
       <c r="S29" s="52"/>
     </row>
-    <row r="30" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B30" s="45" t="s">
         <v>93</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="46" t="s">
         <v>94</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="46" t="s">
         <v>115</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="46" t="s">
         <v>95</v>
       </c>
@@ -3858,7 +3860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
         <v>98</v>
       </c>
@@ -3878,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
         <v>99</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>96</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="46" t="s">
         <v>97</v>
       </c>
@@ -3938,7 +3940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
         <v>101</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
         <v>103</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="46" t="s">
         <v>100</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>104</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
         <v>105</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
         <v>106</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="46" t="s">
         <v>108</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>109</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="46" t="s">
         <v>110</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="46" t="s">
         <v>111</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="46" t="s">
         <v>112</v>
       </c>
@@ -4178,7 +4180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="46" t="s">
         <v>116</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="46" t="s">
         <v>113</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
         <v>107</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
         <v>175</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
         <v>176</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
         <v>177</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
         <v>178</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
         <v>116</v>
       </c>
@@ -4339,7 +4341,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sUmTcRUtukpIu8U6UhYvXUXn8tzQJ82QYIuFF+kuk+WD2XsU/oqUNvS0bfeMxdJzE8kUJMZfV/sk6oB8ElrsTA==" saltValue="5vIwSTuBVag7tV+23BmrNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" sort="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" sort="0"/>
   <mergeCells count="10">
     <mergeCell ref="R13:R17"/>
     <mergeCell ref="A28:G28"/>
@@ -4401,28 +4403,28 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="31.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="17" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="31.5703125" style="2"/>
+    <col min="15" max="15" width="16.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="31.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4444,33 +4446,33 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="159" t="s">
+    <row r="2" spans="1:21" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="158" t="s">
+      <c r="H2" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4492,7 +4494,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4514,7 +4516,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4536,7 +4538,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -4560,7 +4562,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4582,7 +4584,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4604,7 +4606,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="55" t="s">
         <v>165</v>
       </c>
@@ -4615,20 +4617,20 @@
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
       <c r="O9" s="75"/>
       <c r="P9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="58.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>126</v>
       </c>
@@ -4667,7 +4669,7 @@
       <c r="O10" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="P10" s="177">
+      <c r="P10" s="144">
         <f>SUMIF('DONNÉES CLIENTS'!$F$21:$F$23,"Payant",'DONNÉES CLIENTS'!$G$21:$G$23)*'DONNÉES CLIENTS'!$D$14/60</f>
         <v>75</v>
       </c>
@@ -4676,7 +4678,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="str">
         <f>'DONNÉES CLIENTS'!C21</f>
         <v>WB-22D-SS/WRL</v>
@@ -4685,7 +4687,7 @@
         <f>VLOOKUP(A11,'Liste de prix'!B:C,2,FALSE)</f>
         <v>4491.6630000000005</v>
       </c>
-      <c r="C11" s="172">
+      <c r="C11" s="142">
         <f>B11</f>
         <v>4491.6630000000005</v>
       </c>
@@ -4738,7 +4740,7 @@
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="str">
         <f>'DONNÉES CLIENTS'!C22</f>
         <v>WB-DC-150D/WC</v>
@@ -4747,7 +4749,7 @@
         <f>VLOOKUP(A12,'Liste de prix'!B:C,2,FALSE)</f>
         <v>58500</v>
       </c>
-      <c r="C12" s="172">
+      <c r="C12" s="142">
         <f>B12</f>
         <v>58500</v>
       </c>
@@ -4797,7 +4799,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f>'DONNÉES CLIENTS'!C23</f>
         <v>0</v>
@@ -4855,7 +4857,7 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="40">
         <f>F11+F12+F13</f>
         <v>67483.326000000001</v>
@@ -4893,7 +4895,7 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
     </row>
-    <row r="15" spans="1:21" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
         <v>166</v>
       </c>
@@ -4913,18 +4915,18 @@
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
     </row>
-    <row r="16" spans="1:21" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="173">
+      <c r="B16" s="159">
         <f>IF('DONNÉES CLIENTS'!D17="Tarif jaune",8000,15000)</f>
         <v>8000</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -4936,7 +4938,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
     </row>
-    <row r="17" spans="1:20" s="28" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="28" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>157</v>
       </c>
@@ -4955,7 +4957,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="1:20" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>170</v>
       </c>
@@ -4978,17 +4980,17 @@
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
     </row>
-    <row r="19" spans="1:20" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="163" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="170" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="164"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="27"/>
       <c r="I19" s="107">
         <v>2023</v>
@@ -5008,15 +5010,15 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
     </row>
-    <row r="20" spans="1:20" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="164"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="171"/>
       <c r="I20" s="109">
         <v>2024</v>
       </c>
@@ -5037,15 +5039,15 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="1:20" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="164"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="171"/>
       <c r="I21" s="110">
         <v>2025</v>
       </c>
@@ -5068,15 +5070,15 @@
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="1:20" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="164"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="171"/>
       <c r="I22" s="111">
         <v>2026</v>
       </c>
@@ -5099,16 +5101,16 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" s="28" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="28" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="160">
+      <c r="B23" s="156">
         <f>(SUM('DONNÉES CLIENTS'!J21:J23)*300+SUM('DONNÉES CLIENTS'!K21:K23)*500)*4</f>
         <v>4400</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="66"/>
       <c r="F23" s="67"/>
       <c r="K23" s="27"/>
@@ -5121,7 +5123,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
     </row>
-    <row r="24" spans="1:20" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>156</v>
       </c>
@@ -5145,13 +5147,13 @@
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
     </row>
-    <row r="25" spans="1:20" s="28" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="167" t="s">
+    <row r="25" spans="1:20" s="28" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="50"/>
       <c r="F25" s="65"/>
       <c r="H25" s="27"/>
@@ -5173,16 +5175,16 @@
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
     </row>
-    <row r="26" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="154">
+      <c r="B26" s="173">
         <f>SUM('DONNÉES CLIENTS'!I21:I23)*16*12*4</f>
         <v>1536</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
       <c r="E26" s="67"/>
       <c r="F26" s="67"/>
       <c r="H26" s="27"/>
@@ -5210,16 +5212,16 @@
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
     </row>
-    <row r="27" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="154">
+      <c r="B27" s="173">
         <f>SUM('DONNÉES CLIENTS'!H21:H23)*16*12*4</f>
         <v>3072</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
       <c r="H27" s="27"/>
@@ -5247,16 +5249,16 @@
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
     </row>
-    <row r="28" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="154">
+      <c r="B28" s="173">
         <f>SUM('DONNÉES CLIENTS'!$E$21:$E$23)*60</f>
         <v>360</v>
       </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
       <c r="H28" s="27"/>
@@ -5284,7 +5286,7 @@
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
     </row>
-    <row r="29" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="70"/>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -5316,7 +5318,7 @@
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
     </row>
-    <row r="30" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="28" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -5332,18 +5334,18 @@
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
     </row>
-    <row r="31" spans="1:20" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155" t="s">
+    <row r="31" spans="1:20" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="157">
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="176">
         <f>F14+B16+B19+B20+B21+B22+B23+B26+B27+B28</f>
         <v>84851.326000000001</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="30" t="s">
@@ -5360,13 +5362,13 @@
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
     </row>
-    <row r="32" spans="1:20" s="28" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
+    <row r="32" spans="1:20" s="28" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="175"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="114"/>
@@ -5387,7 +5389,7 @@
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
     </row>
-    <row r="33" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="51"/>
@@ -5415,7 +5417,7 @@
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
     </row>
-    <row r="34" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="27"/>
       <c r="E34" s="27"/>
       <c r="G34" s="27"/>
@@ -5441,7 +5443,7 @@
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
     </row>
-    <row r="35" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="27"/>
       <c r="E35" s="27"/>
       <c r="I35" s="105">
@@ -5465,7 +5467,7 @@
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
     </row>
-    <row r="36" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="27"/>
       <c r="E36" s="27"/>
       <c r="I36" s="106">
@@ -5490,7 +5492,7 @@
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
     </row>
-    <row r="37" spans="1:20" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="27"/>
       <c r="E37" s="27"/>
       <c r="I37" s="27"/>
@@ -5502,7 +5504,7 @@
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
     </row>
-    <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="27"/>
       <c r="E38" s="27"/>
       <c r="H38" s="27"/>
@@ -5513,7 +5515,7 @@
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
     </row>
-    <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="27"/>
       <c r="E39" s="27"/>
       <c r="H39" s="27"/>
@@ -5524,17 +5526,17 @@
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
     </row>
-    <row r="40" spans="1:20" s="28" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="28" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
-      <c r="I40" s="153" t="s">
+      <c r="I40" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="J40" s="153"/>
+      <c r="J40" s="172"/>
       <c r="K40" s="97">
         <f>D31*48/J36</f>
         <v>12.814495869488882</v>
@@ -5547,7 +5549,7 @@
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
     </row>
-    <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -5559,7 +5561,7 @@
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
     </row>
-    <row r="42" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -5572,7 +5574,7 @@
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
     </row>
-    <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -5584,7 +5586,7 @@
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
     </row>
-    <row r="44" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
@@ -5596,7 +5598,7 @@
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
     </row>
-    <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -5608,7 +5610,7 @@
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
     </row>
-    <row r="46" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
@@ -5620,7 +5622,7 @@
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
     </row>
-    <row r="47" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -5632,7 +5634,7 @@
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
     </row>
-    <row r="48" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -5645,7 +5647,7 @@
       <c r="S48" s="27"/>
       <c r="T48" s="27"/>
     </row>
-    <row r="49" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -5657,7 +5659,7 @@
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
     </row>
-    <row r="50" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -5669,7 +5671,7 @@
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
     </row>
-    <row r="51" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -5681,7 +5683,7 @@
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
     </row>
-    <row r="52" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
@@ -5693,7 +5695,7 @@
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
     </row>
-    <row r="53" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -5704,7 +5706,7 @@
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
     </row>
-    <row r="54" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
@@ -5715,7 +5717,7 @@
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
     </row>
-    <row r="55" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -5727,7 +5729,7 @@
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
     </row>
-    <row r="56" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -5735,7 +5737,7 @@
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -5743,7 +5745,7 @@
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
     </row>
-    <row r="58" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -5751,7 +5753,7 @@
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
     </row>
-    <row r="59" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -5759,14 +5761,14 @@
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
     </row>
-    <row r="60" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="F60" s="27"/>
     </row>
-    <row r="61" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5775,44 +5777,45 @@
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KRwmd6I30XF1zvkSU23UioSeUSuRHLR9DOe/BD/7CvJL/bXw4rydy1H48Jr3PFk+ekGJ3vrYanF03M8O3rChFQ==" saltValue="m6TGNwKyhJTahIUz+qGz4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
+  <sheetProtection formatCells="0" formatColumns="0"/>
   <mergeCells count="18">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B19:D19"/>
@@ -5820,12 +5823,11 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E19:F22"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5842,15 +5844,15 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76"/>
       <c r="B7" s="78" t="s">
         <v>146</v>
@@ -5862,7 +5864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>140</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>141</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>142</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
         <v>149</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
         <v>150</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
         <v>143</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
         <v>151</v>
       </c>
@@ -5967,7 +5969,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
         <v>144</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
         <v>145</v>
       </c>
@@ -5997,13 +5999,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D18" s="80">
         <f>SUM(D8:D16)</f>
         <v>14875</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="83" t="s">
         <v>128</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>67483.326000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F21" s="84" t="s">
         <v>117</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="80"/>
       <c r="F22" s="85" t="s">
         <v>155</v>
@@ -6031,7 +6033,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="86" t="s">
         <v>118</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="88" t="s">
         <v>161</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="87" t="s">
         <v>83</v>
       </c>
@@ -6058,7 +6060,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="89" t="s">
         <v>3</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F27" s="81" t="s">
         <v>156</v>
       </c>
@@ -6082,30 +6084,30 @@
   <dimension ref="B1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="171" t="s">
+    <row r="3" spans="2:3" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B3" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="171"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="177"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6137,7 +6139,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6145,29 +6147,29 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="171" t="s">
+    <row r="18" spans="2:3" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B18" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="171"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="177"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
@@ -6207,11 +6209,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
@@ -6228,7 +6230,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>71</v>
       </c>
@@ -6252,49 +6254,49 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B39" s="171" t="s">
+    <row r="39" spans="2:3" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B39" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="171"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="177"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
         <v>72</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
         <v>73</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="25" t="s">
         <v>74</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="s">
         <v>75</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="s">
         <v>76</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="s">
         <v>77</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="25" t="s">
         <v>78</v>
       </c>
@@ -6370,21 +6372,21 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>891.67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>1041.67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>1183.33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>1341.67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>1341.67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>1441.6666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>2533.3333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>4491.6630000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>2774.9969999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>4083.33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>6578.645833333333</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>13550</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -6560,7 +6562,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -6593,7 +6595,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>27916.666666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>51250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>47</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>46</v>
       </c>
@@ -6637,7 +6639,7 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>46</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>31625</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>46</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>46</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>46</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>46</v>
       </c>
